--- a/data/historico_cestas_mutiroes.xlsx
+++ b/data/historico_cestas_mutiroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62FB4E-C2D3-4A70-BDC0-736085DE0D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D86B68-E19F-420B-AD52-6CB827BF3ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4860" yWindow="9135" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cestas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>alface crespa</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>corte de bambus para utilização no novo canteiro de tomate/vagem</t>
+  </si>
+  <si>
+    <t>rúcula</t>
+  </si>
+  <si>
+    <t>manjericão</t>
+  </si>
+  <si>
+    <t>azedinha</t>
+  </si>
+  <si>
+    <t>inhame</t>
+  </si>
+  <si>
+    <t>jiló</t>
+  </si>
+  <si>
+    <t>salsão</t>
   </si>
 </sst>
 </file>
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +492,94 @@
       </c>
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/historico_cestas_mutiroes.xlsx
+++ b/data/historico_cestas_mutiroes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D86B68-E19F-420B-AD52-6CB827BF3ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C10319-D1BF-4C1A-8DD0-0EE0165E9BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="9135" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cestas" sheetId="1" r:id="rId1"/>
     <sheet name="mutirões" sheetId="2" r:id="rId2"/>
+    <sheet name="plantios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>alface crespa</t>
   </si>
@@ -83,13 +84,55 @@
   </si>
   <si>
     <t>salsão</t>
+  </si>
+  <si>
+    <t>agrião</t>
+  </si>
+  <si>
+    <t>couve manteiga</t>
+  </si>
+  <si>
+    <t>mandioca</t>
+  </si>
+  <si>
+    <t>rabanete</t>
+  </si>
+  <si>
+    <t>beterraba</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>alface romana</t>
+  </si>
+  <si>
+    <t>melaço</t>
+  </si>
+  <si>
+    <t>almeirão catalona</t>
+  </si>
+  <si>
+    <t>cúrcuma</t>
+  </si>
+  <si>
+    <t>bertalha/ espinafre indiano</t>
+  </si>
+  <si>
+    <t>período</t>
+  </si>
+  <si>
+    <t>12/06/21 a 19/06/21</t>
+  </si>
+  <si>
+    <t>mandioquinha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +144,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,8 +633,177 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -646,4 +866,56 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9022DE6-1355-4A4B-85E3-A2F45F9126B0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>